--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1545555.262018809</v>
+        <v>-1548114.532586365</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>72.83196521698675</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962358</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.82497214908272</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.75950069007669</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>128.0715381111044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.98497099623765</v>
       </c>
       <c r="C5" t="n">
-        <v>180.7541215816009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.812884500636</v>
       </c>
       <c r="W7" t="n">
-        <v>124.467127152972</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>133.4718779172099</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>200.433170752809</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.96625876815415</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121431</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365883</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>25.7319404949738</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.3243999861104</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.3494546525247</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>251.4415958840112</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.76895293959953</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.30532084614</v>
+        <v>866.2215162936445</v>
       </c>
       <c r="C2" t="n">
-        <v>1233.30532084614</v>
+        <v>497.2589993532329</v>
       </c>
       <c r="D2" t="n">
-        <v>1233.30532084614</v>
+        <v>138.9933007464824</v>
       </c>
       <c r="E2" t="n">
-        <v>1233.30532084614</v>
+        <v>138.9933007464824</v>
       </c>
       <c r="F2" t="n">
-        <v>822.3194160565321</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="G2" t="n">
-        <v>407.201964116433</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935902</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I2" t="n">
         <v>65.42565911316235</v>
@@ -4331,7 +4331,7 @@
         <v>250.5613272725627</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183947</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887445</v>
@@ -4352,28 +4352,28 @@
         <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007348</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077313</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208342</v>
+        <v>2700.257989208343</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.195101864771</v>
+        <v>2369.195101864772</v>
       </c>
       <c r="W2" t="n">
-        <v>2016.426446594657</v>
+        <v>2016.426446594658</v>
       </c>
       <c r="X2" t="n">
-        <v>1642.960688333577</v>
+        <v>1642.960688333578</v>
       </c>
       <c r="Y2" t="n">
-        <v>1619.905160910261</v>
+        <v>1252.821356357766</v>
       </c>
     </row>
     <row r="3">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.2780724250408</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="C4" t="n">
-        <v>608.2780724250408</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="D4" t="n">
-        <v>458.1614330127051</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="E4" t="n">
-        <v>310.2483394303119</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="F4" t="n">
-        <v>163.3583919324016</v>
+        <v>159.1221244566737</v>
       </c>
       <c r="G4" t="n">
-        <v>163.3583919324016</v>
+        <v>159.1221244566737</v>
       </c>
       <c r="H4" t="n">
-        <v>163.3583919324016</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I4" t="n">
         <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182614</v>
+        <v>109.1495242182616</v>
       </c>
       <c r="K4" t="n">
         <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039125</v>
+        <v>624.4564789039123</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220438</v>
+        <v>965.5122071220437</v>
       </c>
       <c r="N4" t="n">
         <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235785</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863762</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
         <v>1906.594412149534</v>
@@ -4516,22 +4516,22 @@
         <v>1623.818632148416</v>
       </c>
       <c r="T4" t="n">
-        <v>1401.965766370402</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>1401.965766370402</v>
+        <v>1112.861798427778</v>
       </c>
       <c r="V4" t="n">
-        <v>1147.281278164515</v>
+        <v>858.1773102218914</v>
       </c>
       <c r="W4" t="n">
-        <v>1017.916088153298</v>
+        <v>568.7601401849308</v>
       </c>
       <c r="X4" t="n">
-        <v>789.9265372552806</v>
+        <v>340.7705892869135</v>
       </c>
       <c r="Y4" t="n">
-        <v>789.9265372552806</v>
+        <v>340.7705892869135</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482645</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881546</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792693</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522579</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522579</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546767</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228006</v>
@@ -4650,22 +4650,22 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8580214762837</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8580214762837</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415546</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.012987209659</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>1235.288616348071</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>1007.299065450054</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>786.5064863065235</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.418012197377</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.455495256965</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1044.189796650215</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>658.4015440519706</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792693</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522579</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261499</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261499</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1014.373575514115</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>845.4373925862086</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>695.3207531738728</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4981,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4993,19 +4993,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344355</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1196.022040344355</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5036,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277356</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5212,7 +5212,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172271</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,13 +5437,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579754</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E19" t="n">
-        <v>397.4723325755823</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F19" t="n">
-        <v>397.4723325755823</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5762,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429801</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1272.7575184984</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6005,22 +6005,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,19 +6476,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,22 +7333,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,43 +7810,43 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>334.0440805247247</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736142</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.4129665069709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>52.17319361040555</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>158.4514602254866</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582711</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168485</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>260.4525338942703</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>5.199738306158465</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.482525529412549</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.696047439816848</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.8157004124952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26323,13 +26323,13 @@
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26341,7 +26341,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26350,7 +26350,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074478</v>
+        <v>14479.05232074559</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022523</v>
+        <v>3495.241841022697</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>11698.02956068577</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314492</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179347</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.0322517935</v>
-      </c>
       <c r="J4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="L4" t="n">
         <v>19157.89151488698</v>
@@ -26451,13 +26451,13 @@
         <v>19157.891514887</v>
       </c>
       <c r="N4" t="n">
+        <v>19157.891514887</v>
+      </c>
+      <c r="O4" t="n">
         <v>19157.89151488699</v>
       </c>
-      <c r="O4" t="n">
-        <v>19157.89151488697</v>
-      </c>
       <c r="P4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>106866.6399031116</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1313602.70391898</v>
+        <v>-1313962.786934697</v>
       </c>
       <c r="C6" t="n">
-        <v>-69084.75017903332</v>
+        <v>-69084.750179034</v>
       </c>
       <c r="D6" t="n">
-        <v>-54605.69785828855</v>
+        <v>-54605.69785828852</v>
       </c>
       <c r="E6" t="n">
-        <v>-296451.3689373053</v>
+        <v>-296486.1068627404</v>
       </c>
       <c r="F6" t="n">
-        <v>28961.0928700505</v>
+        <v>28926.35494461472</v>
       </c>
       <c r="G6" t="n">
-        <v>28961.09287005047</v>
+        <v>28926.35494461475</v>
       </c>
       <c r="H6" t="n">
-        <v>28961.09287005059</v>
+        <v>28926.35494461475</v>
       </c>
       <c r="I6" t="n">
-        <v>28961.0928700505</v>
+        <v>28926.35494461478</v>
       </c>
       <c r="J6" t="n">
-        <v>-185016.7965425026</v>
+        <v>-185051.5344679384</v>
       </c>
       <c r="K6" t="n">
-        <v>25465.85102902798</v>
+        <v>25431.11310359204</v>
       </c>
       <c r="L6" t="n">
-        <v>1932.584363815549</v>
+        <v>1932.584363815491</v>
       </c>
       <c r="M6" t="n">
-        <v>-63694.72557806478</v>
+        <v>-63694.72557806461</v>
       </c>
       <c r="N6" t="n">
-        <v>21360.3023574473</v>
+        <v>21360.30235744726</v>
       </c>
       <c r="O6" t="n">
-        <v>21360.30235744735</v>
+        <v>21360.30235744725</v>
       </c>
       <c r="P6" t="n">
-        <v>21360.30235744732</v>
+        <v>21360.30235744728</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0822521020948</v>
+        <v>11.08225210209548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.748870667243</v>
       </c>
       <c r="C5" t="n">
-        <v>184.5187701894066</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.32475882319196</v>
       </c>
       <c r="W7" t="n">
-        <v>162.055871183619</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>273.4041678245015</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>50.56200120609302</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>76.46770387841502</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800744</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.644924279593397e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>541.2980521010957</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>407.3236446867654</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
